--- a/jpcore-r4/feature/swg3-OrganizationExtensionCoding/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/feature/swg3-OrganizationExtensionCoding/StructureDefinition-jp-coverage.xlsx
@@ -690,7 +690,7 @@
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
 すべてのターミノロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。
-【JP-Core仕様】厚労省保険局の電子処方等で使用される保険種別コード（system=”urn:oid:1.2.392.100495.20.2.61”）として、https://www.mhlw.go.jp/content/10800000/000342368.pdf　の別表１１が使用できる。</t>
+【JP Core仕様】厚労省保険局の電子処方等で使用される保険種別コード（system=”urn:oid:1.2.392.100495.20.2.61”）として、https://www.mhlw.go.jp/content/10800000/000342368.pdf　の別表１１が使用できる。</t>
   </si>
   <si>
     <t>The order of application of coverages is dependent on the types of coverage.
@@ -763,7 +763,7 @@
   <si>
     <t>This is the party who is entitled to the benefits under the policy.
 これは、ポリシーに基づいて給付を受ける権利を有する当事者である。
-【JP-Core仕様】公費情報で本リソースを使用する場合には、この要素に公費受給者番号を設定する。</t>
+【JP Core仕様】公費情報で本リソースを使用する場合には、この要素に公費受給者番号を設定する。</t>
   </si>
   <si>
     <t>Coverage.subscriberId</t>
@@ -798,7 +798,7 @@
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
-【JP-Core仕様】患者Patientリソースへの参照。</t>
+【JP Core仕様】患者Patientリソースへの参照。</t>
   </si>
   <si>
     <t>This is the party who receives treatment for which the costs are reimbursed under the coverage.
@@ -825,7 +825,7 @@
     <t>For some coverages a single identifier is issued to the Subscriber and then a unique dependent number is issued to each beneficiary.
 一部の補償では、単一の識別子が加入者に発行され、次に一意の従属番号が各受益者に発行される。
 一部の保険では、単一の識別子が加入者に発行され、その後、各受益者に固有の扶養番号が発行される。
-【JP-Core仕様】医療保険で本リソースを使用する場合には、この要素に拡張 InsuredPersonSubNumberに設定した値と同じ、被保険者番号の枝番号2桁を設定する。</t>
+【JP Core仕様】医療保険で本リソースを使用する場合には、この要素に拡張 InsuredPersonSubNumberに設定した値と同じ、被保険者番号の枝番号2桁を設定する。</t>
   </si>
   <si>
     <t>C17</t>
@@ -850,7 +850,7 @@
   <si>
     <t>To determine relationship between the patient and the subscriber to determine coordination of benefits.
 患者と加入者の関係を決定し、給付の調整を決定する。
-【JP-Core仕様】厚労省保険局の電子処方等で使用される被保険者区分コード（system=”urn:oid:1.2.392.100495.20.2.62”）として、https://www.mhlw.go.jp/content/10800000/000342368.pdf　の別表１２が使用できる。
+【JP Core仕様】厚労省保険局の電子処方等で使用される被保険者区分コード（system=”urn:oid:1.2.392.100495.20.2.62”）として、https://www.mhlw.go.jp/content/10800000/000342368.pdf　の別表１２が使用できる。
 1　被保険者
 2　被扶養者</t>
   </si>
@@ -888,7 +888,7 @@
 This is not a duration - that's a measure of time (a separate type), but a duration that occurs at a fixed value of time. A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times"). If duration is required, specify the type as Interval|Duration.
 これはDuration（時間区間）ではない-　Durationは時間の尺度（別のタイプ）だが、時間の固定値で発生する時間区間である。Period（期間）は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、範囲から1つの値が適用されるか（たとえば、「この2回の間に患者に投与する」）を指定する。もし、Duration（時間区間）が必要な場合は、タイプをInterval | Durationとして指定する。
 これは期間ではなく-これは時間の尺度（別のタイプ）あるが、時間の固定値で発生する期間である。期間は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、または範囲から1つの値が適用されるか（たとえば、「これら2回の間に患者に与える」）を指定する。期間が必要な場合は、タイプをInterval | Durationとして指定する。
-【JP-Core仕様】医療保険、公費で本リソースを使用する場合には、保険証または公費の有効期間の開始日、終了日をstart とendに yyyy-mm-dd形式で設定する。</t>
+【JP Core仕様】医療保険、公費で本リソースを使用する場合には、保険証または公費の有効期間の開始日、終了日をstart とendに yyyy-mm-dd形式で設定する。</t>
   </si>
   <si>
     <t>Some insurers require the submission of the coverage term.
@@ -928,7 +928,7 @@
   <si>
     <t>Need to identify the issuer to target for claim processing and for coordination of benefit processing.
 請求処理および給付処理の調整の対象となる発行者を特定する必要がある。
-【JP-Core仕様】医療保険で本リソースを使用する場合には、保険者組織Organizationリソースへの参照。自費の場合には、患者Patientリソースへの参照。公費の場合には、公費負担者組織Organizationリソースへの参照。</t>
+【JP Core仕様】医療保険で本リソースを使用する場合には、保険者組織Organizationリソースへの参照。自費の場合には、患者Patientリソースへの参照。公費の場合には、公費負担者組織Organizationリソースへの参照。</t>
   </si>
   <si>
     <t>FiveWs.author</t>
@@ -1079,7 +1079,7 @@
   <si>
     <t>Used in managing the coordination of benefits.
 保険給付の調整管理に使用する。
-【JP-Core仕様】公費情報で本リソースを使用する場合で、複数の公費負担情報がある場合に、その適用順序番号を示す１，２，３．．．を設定する。</t>
+【JP Core仕様】公費情報で本リソースを使用する場合で、複数の公費負担情報がある場合に、その適用順序番号を示す１，２，３．．．を設定する。</t>
   </si>
   <si>
     <t>Coverage.network</t>
@@ -1115,7 +1115,7 @@
   <si>
     <t>For example by knowing the patient visit co-pay, the provider can collect the amount prior to undertaking treatment.
 例えば、患者の訪問時の自己負担額を知ることで、医療提供者は治療を行う前にその金額を回収することができる。
-【JP-Core仕様】公費の場合には自己負担率。判明している場合のみ設定する。</t>
+【JP Core仕様】公費の場合には自己負担率。判明している場合のみ設定する。</t>
   </si>
   <si>
     <t>Required by providers to manage financial transaction with the patient.
